--- a/Excel/EposObject.xlsx
+++ b/Excel/EposObject.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -20,6 +20,9 @@
     <t>Tile</t>
   </si>
   <si>
+    <t>ItemType</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -41,6 +44,9 @@
     <t>Trophy</t>
   </si>
   <si>
+    <t>Monster</t>
+  </si>
+  <si>
     <t xml:space="preserve">static </t>
   </si>
   <si>
@@ -62,6 +68,9 @@
     <t>1TierMonsterModel</t>
   </si>
   <si>
+    <t>MeleeWeapon</t>
+  </si>
+  <si>
     <t>Moveable</t>
   </si>
   <si>
@@ -71,9 +80,15 @@
     <t>Item</t>
   </si>
   <si>
+    <t>Armour</t>
+  </si>
+  <si>
     <t>ArmorModel</t>
   </si>
   <si>
+    <t>Gold</t>
+  </si>
+  <si>
     <t>SmallGoldModel</t>
   </si>
   <si>
@@ -83,6 +98,9 @@
     <t>BigGoldModel</t>
   </si>
   <si>
+    <t>Card</t>
+  </si>
+  <si>
     <t>CardEventModel</t>
   </si>
   <si>
@@ -95,6 +113,9 @@
     <t>EnvironmentTile</t>
   </si>
   <si>
+    <t>Environment</t>
+  </si>
+  <si>
     <t>EnvironmentModel1</t>
   </si>
   <si>
@@ -105,6 +126,9 @@
   </si>
   <si>
     <t>InteractionTile</t>
+  </si>
+  <si>
+    <t>HP</t>
   </si>
   <si>
     <t>HealingFacor1</t>
@@ -555,9 +579,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="3" max="3" width="16.25"/>
     <col customWidth="1" min="4" max="4" width="14.13"/>
     <col customWidth="1" min="5" max="5" width="17.25"/>
-    <col customWidth="1" min="6" max="6" width="11.75"/>
+    <col customWidth="1" min="6" max="6" width="25.0"/>
     <col customWidth="1" min="7" max="7" width="17.25"/>
     <col customWidth="1" min="10" max="10" width="14.0"/>
     <col customWidth="1" min="11" max="11" width="17.13"/>
@@ -605,33 +630,39 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <v>1030001.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2">
         <v>6.0</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2">
         <v>1060001.0</v>
       </c>
-      <c r="G2" s="2">
-        <v>0.0</v>
-      </c>
       <c r="H2" s="2">
         <v>0.0</v>
       </c>
       <c r="I2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="2">
         <v>1040010.0</v>
       </c>
     </row>
@@ -641,28 +672,31 @@
         <v>1030002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2">
         <v>5.0</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F7" si="2">F2+1</f>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G7" si="2">G2+1</f>
         <v>1060002</v>
       </c>
-      <c r="G3" s="2">
-        <v>0.0</v>
-      </c>
       <c r="H3" s="2">
         <v>0.0</v>
       </c>
       <c r="I3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="2">
         <v>1040003.0</v>
       </c>
     </row>
@@ -672,28 +706,31 @@
         <v>1030003</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
         <v>4.0</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2">
         <f t="shared" si="2"/>
         <v>1060003</v>
       </c>
-      <c r="G4" s="2">
-        <v>0.0</v>
-      </c>
       <c r="H4" s="2">
         <v>0.0</v>
       </c>
       <c r="I4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="2">
         <v>1040006.0</v>
       </c>
     </row>
@@ -703,28 +740,31 @@
         <v>1030004</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>3.0</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2">
         <f t="shared" si="2"/>
         <v>1060004</v>
       </c>
-      <c r="G5" s="2">
-        <v>0.0</v>
-      </c>
       <c r="H5" s="2">
         <v>0.0</v>
       </c>
       <c r="I5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="2">
         <v>1040010.0</v>
       </c>
     </row>
@@ -734,28 +774,31 @@
         <v>1030005</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2">
         <v>2.0</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2">
         <f t="shared" si="2"/>
         <v>1060005</v>
       </c>
-      <c r="G6" s="2">
-        <v>0.0</v>
-      </c>
       <c r="H6" s="2">
         <v>0.0</v>
       </c>
       <c r="I6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="2">
         <v>1040003.0</v>
       </c>
     </row>
@@ -765,28 +808,31 @@
         <v>1030006</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2">
         <v>1.0</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2">
         <f t="shared" si="2"/>
         <v>1060006</v>
       </c>
-      <c r="G7" s="2">
-        <v>0.0</v>
-      </c>
       <c r="H7" s="2">
         <v>0.0</v>
       </c>
       <c r="I7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="2">
         <v>1040006.0</v>
       </c>
     </row>
@@ -796,27 +842,30 @@
         <v>1030007</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2">
         <v>6.0</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
         <v>1070001.0</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="2">
         <v>1.0</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -826,27 +875,30 @@
         <v>1030008</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2">
         <v>5.0</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2">
         <v>1070002.0</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="H9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="2">
         <v>1.0</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -856,27 +908,30 @@
         <v>1030009</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2">
         <v>4.0</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2">
         <v>1070003.0</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="H10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="2">
         <v>1.0</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -886,27 +941,30 @@
         <v>1030010</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2">
         <v>3.0</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="F11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2">
         <v>1070004.0</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="H11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="2">
         <v>1.0</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -916,27 +974,30 @@
         <v>1030011</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2">
         <v>2.0</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2">
         <v>1070005.0</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="H12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="2">
         <v>1.0</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -946,27 +1007,30 @@
         <v>1030012</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2">
         <v>1.0</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2">
         <v>1070006.0</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="H13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="2">
         <v>1.0</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -976,27 +1040,30 @@
         <v>1030013</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2">
         <v>6.0</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="F14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="2">
         <v>1070007.0</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="H14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="2">
         <v>1.0</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -1006,27 +1073,30 @@
         <v>1030014</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="2">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2">
         <v>5.0</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="F15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="2">
         <v>1070008.0</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="H15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="2">
         <v>1.0</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -1036,27 +1106,30 @@
         <v>1030015</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2">
         <v>4.0</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="F16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="2">
         <v>1070009.0</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="H16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="2">
         <v>1.0</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -1066,27 +1139,30 @@
         <v>1030016</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2">
         <v>3.0</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="F17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="2">
         <v>1070010.0</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="H17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="2">
         <v>1.0</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -1096,27 +1172,30 @@
         <v>1030017</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="2">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2">
         <v>2.0</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="F18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="2">
         <v>1070011.0</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="H18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="2">
         <v>1.0</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -1126,27 +1205,30 @@
         <v>1030018</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="2">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2">
         <v>1.0</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="F19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="2">
         <v>1070012.0</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="H19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="2">
         <v>1.0</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -1156,27 +1238,30 @@
         <v>1030019</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="2">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2">
         <v>3.0</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="F20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="2">
         <v>100.0</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -1186,27 +1271,30 @@
         <v>1030020</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="2">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="2">
         <v>2.0</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="F21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="2">
         <v>300.0</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -1216,27 +1304,30 @@
         <v>1030021</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="2">
+        <v>28</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="2">
         <v>6.0</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="F22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2">
         <v>1.0</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -1246,27 +1337,30 @@
         <v>1030022</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="2">
+        <v>28</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="2">
         <v>3.0</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="F23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="2">
         <v>1.0</v>
       </c>
-      <c r="I23" s="2">
+      <c r="J23" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -1276,27 +1370,30 @@
         <v>1030023</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="2">
+        <v>28</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="2">
         <v>1.0</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="F24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2">
         <v>1.0</v>
       </c>
-      <c r="I24" s="2">
+      <c r="J24" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -1306,13 +1403,13 @@
         <v>1030024</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.0</v>
+        <v>31</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E25" s="2">
         <v>0.0</v>
@@ -1327,6 +1424,9 @@
         <v>0.0</v>
       </c>
       <c r="I25" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -1336,19 +1436,19 @@
         <v>1030025</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.0</v>
+        <v>33</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G26" s="2">
         <v>0.0</v>
@@ -1357,6 +1457,9 @@
         <v>0.0</v>
       </c>
       <c r="I26" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J26" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -1366,19 +1469,19 @@
         <v>1030026</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.0</v>
+        <v>33</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="G27" s="2">
         <v>0.0</v>
@@ -1387,6 +1490,9 @@
         <v>0.0</v>
       </c>
       <c r="I27" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J27" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -1396,19 +1502,19 @@
         <v>1030027</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0.0</v>
+        <v>33</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="G28" s="2">
         <v>0.0</v>
@@ -1417,6 +1523,9 @@
         <v>0.0</v>
       </c>
       <c r="I28" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J28" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -1426,27 +1535,30 @@
         <v>1030028</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="2">
+        <v>38</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="2">
         <v>30.0</v>
       </c>
-      <c r="I29" s="2">
+      <c r="J29" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -1456,27 +1568,30 @@
         <v>1030029</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="2">
+        <v>38</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="2">
         <v>60.0</v>
       </c>
-      <c r="I30" s="2">
+      <c r="J30" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -1501,122 +1616,122 @@
   <sheetData>
     <row r="3">
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="AK5" s="4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -1627,7 +1742,7 @@
         <v>1.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2">
         <v>1030001.0</v>
@@ -1754,7 +1869,7 @@
         <v>1.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2">
         <v>1030001.0</v>
@@ -1881,7 +1996,7 @@
         <v>1.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2">
         <v>1030001.0</v>
@@ -2008,7 +2123,7 @@
         <v>1.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2">
         <v>1030001.0</v>
@@ -2135,7 +2250,7 @@
         <v>1.0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E10" s="2">
         <v>1030001.0</v>
@@ -2262,7 +2377,7 @@
         <v>1.0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2">
         <v>1030001.0</v>
@@ -2391,7 +2506,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E12" s="2">
         <v>1030001.0</v>
@@ -2518,7 +2633,7 @@
         <v>2.0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2">
         <v>1030001.0</v>
@@ -2646,7 +2761,7 @@
         <v>2.0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2">
         <v>1030001.0</v>
@@ -2773,7 +2888,7 @@
         <v>2.0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2">
         <v>1030001.0</v>
@@ -2901,7 +3016,7 @@
         <v>2.0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2">
         <v>1030001.0</v>
@@ -3028,7 +3143,7 @@
         <v>2.0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2">
         <v>1030001.0</v>
@@ -3157,7 +3272,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E18" s="2">
         <v>1030001.0</v>
@@ -3284,7 +3399,7 @@
         <v>3.0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2">
         <v>1030001.0</v>
@@ -3412,7 +3527,7 @@
         <v>3.0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2">
         <v>1030001.0</v>
@@ -3539,7 +3654,7 @@
         <v>3.0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2">
         <v>1030001.0</v>
@@ -3667,7 +3782,7 @@
         <v>3.0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E22" s="2">
         <v>1030001.0</v>
@@ -3794,7 +3909,7 @@
         <v>3.0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E23" s="2">
         <v>1030001.0</v>
@@ -3923,7 +4038,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E24" s="2">
         <v>1030001.0</v>
@@ -4050,7 +4165,7 @@
         <v>4.0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2">
         <v>1030001.0</v>
@@ -4178,7 +4293,7 @@
         <v>4.0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2">
         <v>1030001.0</v>
@@ -4305,7 +4420,7 @@
         <v>4.0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E27" s="2">
         <v>1030001.0</v>
@@ -4433,7 +4548,7 @@
         <v>4.0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E28" s="2">
         <v>1030001.0</v>
@@ -4560,7 +4675,7 @@
         <v>4.0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E29" s="2">
         <v>1030001.0</v>

--- a/Excel/EposObject.xlsx
+++ b/Excel/EposObject.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D972F42-B016-44ED-92A2-20432B31C8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F0C5AD-C337-45F0-AF78-A37CEBA8B1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="12525" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tile" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -285,6 +285,10 @@
   </si>
   <si>
     <t>Interaction</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPPotion</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -612,36 +616,37 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="15.21875" customWidth="1"/>
-    <col min="15" max="15" width="15.77734375" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" customWidth="1"/>
-    <col min="17" max="17" width="15.21875" customWidth="1"/>
-    <col min="18" max="18" width="15.6640625" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" customWidth="1"/>
-    <col min="20" max="20" width="15.21875" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" customWidth="1"/>
-    <col min="22" max="22" width="15.21875" customWidth="1"/>
-    <col min="23" max="23" width="9.77734375" customWidth="1"/>
-    <col min="24" max="24" width="14.109375" customWidth="1"/>
-    <col min="25" max="25" width="19.109375" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" customWidth="1"/>
+    <col min="25" max="25" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -710,7 +715,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:A30" si="0">A2+1</f>
+        <f t="shared" ref="A3:A19" si="0">A2+1</f>
         <v>1030002</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -898,9 +903,7 @@
       <c r="F8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="2">
-        <v>1070001</v>
-      </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
         <v>20</v>
       </c>
@@ -931,9 +934,7 @@
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="2">
-        <v>1070002</v>
-      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
         <v>20</v>
       </c>
@@ -964,9 +965,7 @@
       <c r="F10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="2">
-        <v>1070003</v>
-      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
         <v>20</v>
       </c>
@@ -997,9 +996,7 @@
       <c r="F11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="2">
-        <v>1070004</v>
-      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1030,9 +1027,7 @@
       <c r="F12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="2">
-        <v>1070005</v>
-      </c>
+      <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1063,9 +1058,7 @@
       <c r="F13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="2">
-        <v>1070006</v>
-      </c>
+      <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1096,9 +1089,7 @@
       <c r="F14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="2">
-        <v>1070007</v>
-      </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1129,9 +1120,7 @@
       <c r="F15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="2">
-        <v>1070008</v>
-      </c>
+      <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1162,9 +1151,7 @@
       <c r="F16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="2">
-        <v>1070009</v>
-      </c>
+      <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1195,9 +1182,7 @@
       <c r="F17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="2">
-        <v>1070010</v>
-      </c>
+      <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1208,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="14.25">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>1030017</v>
@@ -1228,9 +1213,7 @@
       <c r="F18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="2">
-        <v>1070011</v>
-      </c>
+      <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
         <v>20</v>
       </c>
@@ -1241,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="14.25">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>1030018</v>
@@ -1261,9 +1244,7 @@
       <c r="F19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="2">
-        <v>1070012</v>
-      </c>
+      <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1274,141 +1255,133 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" ht="14.25">
       <c r="A20" s="2">
-        <f t="shared" si="0"/>
+        <f>A19+1</f>
         <v>1030019</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I20" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="14.25">
       <c r="A21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A21:A32" si="2">A20+1</f>
         <v>1030020</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I21" s="2">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" ht="14.25">
       <c r="A22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1030021</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I22" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J22" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" ht="14.25">
       <c r="A23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1030022</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I23" s="2">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" ht="14.25">
       <c r="A24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1030023</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1421,14 +1394,12 @@
         <v>18</v>
       </c>
       <c r="E24" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
+      <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1439,91 +1410,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" ht="14.25">
       <c r="A25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1030024</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="I25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" ht="14.25">
       <c r="A26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1030025</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="I26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" ht="14.25">
       <c r="A27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1030026</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>33</v>
+      <c r="F27" s="2">
+        <v>0</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
@@ -1538,9 +1505,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" ht="14.25">
       <c r="A28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1030027</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1556,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
@@ -1571,16 +1538,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="14.25">
       <c r="A29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1030028</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>11</v>
@@ -1589,31 +1556,31 @@
         <v>0</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G29" s="2">
         <v>0</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>37</v>
+      <c r="H29" s="2">
+        <v>0</v>
       </c>
       <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14.25">
+      <c r="A30" s="2">
+        <f t="shared" si="2"/>
+        <v>1030029</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="2">
-        <f t="shared" si="0"/>
-        <v>1030029</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>11</v>
@@ -1622,18 +1589,84 @@
         <v>0</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A31" s="2">
+        <f t="shared" si="2"/>
+        <v>1030030</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="2">
+        <v>30</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A32" s="2">
+        <f t="shared" si="2"/>
+        <v>1030031</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2" t="s">
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I32" s="2">
         <v>60</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J32" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1652,10 +1685,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:37">
